--- a/AppData.xlsx
+++ b/AppData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nocam\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{318EF58F-C7FE-4CD5-A42E-811413583379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A158A31-A408-4DB2-AE44-854209130487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{FA94614B-6349-424C-BA27-1F705D7264C9}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>SS304</t>
   </si>
   <si>
-    <t>Steel</t>
-  </si>
-  <si>
     <t>Steel1006</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Zr</t>
+  </si>
+  <si>
+    <t>Steel1045</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>7850</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>7896</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>16656</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3">
         <v>4527</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>4419</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>6099</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>19200</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>7139</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="3">
         <v>6506</v>
